--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457473.6090036592</v>
+        <v>-459361.1905200607</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>304.0188125579737</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>55.01619442500201</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -829,16 +829,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>34.12924797235455</v>
       </c>
       <c r="U4" t="n">
-        <v>22.99033455509908</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>387.564229252343</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>25.30758686808333</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>79.3292071608917</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>176.7166301627352</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>121.1156257058473</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598873</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.7268375758688</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>91.09720239620462</v>
+        <v>195.8155841663236</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>39.01143415852098</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>139.0551504791174</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.40666873704808</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>143.3158222056518</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.20191370677084</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>146.2787299119461</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>126.3608161767568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>68.63638951034062</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,10 +2767,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>28.07026078837333</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>78.67531269948284</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897887</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571473</v>
+        <v>55.21598883571482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523554</v>
+        <v>54.76109577523563</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>91.58055624493105</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329011</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>785.9420003258999</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C2" t="n">
-        <v>785.9420003258999</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>527.4787034827857</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>527.4787034827857</v>
       </c>
       <c r="F2" t="n">
         <v>471.9067899221776</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1562.681172365833</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1172.541840390022</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.489254012808</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="C4" t="n">
-        <v>415.489254012808</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="D4" t="n">
-        <v>415.489254012808</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>693.654996355571</v>
       </c>
       <c r="U4" t="n">
-        <v>704.9064240497687</v>
+        <v>693.654996355571</v>
       </c>
       <c r="V4" t="n">
-        <v>704.9064240497687</v>
+        <v>693.654996355571</v>
       </c>
       <c r="W4" t="n">
-        <v>415.489254012808</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="X4" t="n">
-        <v>415.489254012808</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="Y4" t="n">
-        <v>415.489254012808</v>
+        <v>404.2378263186104</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.5813018857447</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="C7" t="n">
-        <v>358.5813018857447</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
         <v>211.6913543878343</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>647.9984719227052</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>647.9984719227052</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="U7" t="n">
-        <v>647.9984719227052</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="V7" t="n">
-        <v>647.9984719227052</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="W7" t="n">
-        <v>358.5813018857447</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="X7" t="n">
-        <v>358.5813018857447</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.5813018857447</v>
+        <v>549.6273375774088</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1485.892406545185</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.892406545185</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1485.892406545185</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816298</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799363</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557901</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771459</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655721</v>
+        <v>731.3177283550798</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286115</v>
+        <v>441.9005583181191</v>
       </c>
       <c r="X13" t="n">
-        <v>573.668597370829</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.668597370829</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.4651278373165</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="C16" t="n">
-        <v>506.0596387883054</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883054</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>237.6768394189903</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>237.6768394189903</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>237.6768394189903</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5440,16 +5440,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655735</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X16" t="n">
-        <v>727.1135926675562</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y16" t="n">
-        <v>727.1135926675562</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655739</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286133</v>
+        <v>241.9805482336715</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305961</v>
+        <v>241.9805482336715</v>
       </c>
       <c r="Y19" t="n">
-        <v>437.6964226305961</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,7 +5765,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609668</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550799</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181194</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>441.9005583181194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.9005583181194</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>947.5736572056305</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>692.8891689997437</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>692.8891689997437</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X25" t="n">
-        <v>464.8996181017263</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>447.0175521403266</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>278.0813692124198</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>278.0813692124198</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E28" t="n">
-        <v>278.0813692124198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6385,10 +6385,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247859</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383441</v>
+        <v>1046.857046486826</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383441</v>
+        <v>792.1725582809389</v>
       </c>
       <c r="W28" t="n">
-        <v>675.0071030383441</v>
+        <v>792.1725582809389</v>
       </c>
       <c r="X28" t="n">
-        <v>447.0175521403268</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.0175521403266</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,16 +6449,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6467,25 +6467,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.532429954222</v>
+        <v>656.2176762508393</v>
       </c>
       <c r="C31" t="n">
-        <v>439.532429954222</v>
+        <v>543.0423586043032</v>
       </c>
       <c r="D31" t="n">
-        <v>439.532429954222</v>
+        <v>448.6865844733384</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264616</v>
+        <v>356.5343561723162</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264616</v>
+        <v>265.4052739557767</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667515</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1712.787274970148</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662002</v>
+        <v>1479.419501465078</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737486</v>
+        <v>1280.495878540562</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818963</v>
+        <v>1046.839573784972</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652499</v>
+        <v>874.6108881683253</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030907</v>
+        <v>782.1052757997081</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,7 +6938,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,31 +7430,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,16 +7828,16 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978197</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>134.6124529928325</v>
+        <v>29.89407122271359</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>128.2353869401068</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>9.858677888418697</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.4253114448892</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644303</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.63006647516646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>20.21483855143148</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>159.8765362218205</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>76.78465851259062</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>258.167091610204</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896551</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>12.55539331852907</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437399</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>71.80084047860656</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1160664.664191674</v>
+        <v>1160664.664191673</v>
       </c>
     </row>
     <row r="11">
@@ -26317,13 +26317,13 @@
         <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
         <v>215065.9828557399</v>
       </c>
       <c r="F2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="G2" t="n">
         <v>215065.9828557398</v>
@@ -26332,13 +26332,13 @@
         <v>215065.9828557398</v>
       </c>
       <c r="I2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="J2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="K2" t="n">
-        <v>223752.1755398985</v>
+        <v>223752.1755398986</v>
       </c>
       <c r="L2" t="n">
         <v>225786.4867126781</v>
@@ -26350,7 +26350,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284574</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086672</v>
+        <v>10342.90680086677</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284576</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007463</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007505</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020409</v>
+        <v>26081.35417020406</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
@@ -26503,10 +26503,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-594957.5192811969</v>
+        <v>-594957.5192811968</v>
       </c>
       <c r="C6" t="n">
-        <v>-4989.640066652297</v>
+        <v>-4989.640066652326</v>
       </c>
       <c r="D6" t="n">
-        <v>-4989.640066652413</v>
+        <v>-4989.640066652268</v>
       </c>
       <c r="E6" t="n">
-        <v>-409998.1112258803</v>
+        <v>-410095.5703518525</v>
       </c>
       <c r="F6" t="n">
-        <v>115161.9252510157</v>
+        <v>115064.4661250435</v>
       </c>
       <c r="G6" t="n">
-        <v>115161.9252510157</v>
+        <v>115064.4661250435</v>
       </c>
       <c r="H6" t="n">
-        <v>115161.9252510157</v>
+        <v>115064.4661250436</v>
       </c>
       <c r="I6" t="n">
-        <v>115161.9252510157</v>
+        <v>115064.4661250436</v>
       </c>
       <c r="J6" t="n">
-        <v>-61261.29394157724</v>
+        <v>-61358.75306754938</v>
       </c>
       <c r="K6" t="n">
-        <v>56880.00753662585</v>
+        <v>56861.51379869161</v>
       </c>
       <c r="L6" t="n">
-        <v>87392.95519445806</v>
+        <v>87392.955194458</v>
       </c>
       <c r="M6" t="n">
-        <v>-37065.15323851244</v>
+        <v>-37065.15323851242</v>
       </c>
       <c r="N6" t="n">
-        <v>97735.86199532478</v>
+        <v>97735.86199532477</v>
       </c>
       <c r="O6" t="n">
-        <v>97735.86199532475</v>
+        <v>97735.8619953248</v>
       </c>
       <c r="P6" t="n">
-        <v>53573.25669247897</v>
+        <v>53573.256692479</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010834</v>
+        <v>12.92863350108347</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.2032566285572</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>50.6642290627093</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>351.8598513167094</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>190.9058574857297</v>
       </c>
       <c r="U4" t="n">
-        <v>263.2915396868787</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>19.31181648936848</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>344.4235138103857</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>132.8163317891272</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>48.31847529534909</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>244.1572660651602</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858172</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890128</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35501,13 +35501,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187318</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412277</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.428956600432</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37315,7 +37315,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37783,7 +37783,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
